--- a/telegram_bot/templet_files/سلم الرصد/رابع حتى ثامن عاهده.xlsx
+++ b/telegram_bot/templet_files/سلم الرصد/رابع حتى ثامن عاهده.xlsx
@@ -74,7 +74,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -126,13 +126,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -227,12 +220,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -276,19 +269,15 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -309,13 +298,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y22"/>
+  <dimension ref="A1:AW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X4" activeCellId="0" sqref="X4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.66"/>
@@ -528,7 +517,7 @@
       <c r="Q6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="R6" s="12" t="s">
+      <c r="R6" s="11" t="s">
         <v>9</v>
       </c>
       <c r="S6" s="11" t="s">
@@ -556,477 +545,1594 @@
       <c r="B7" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="C7" s="13" t="n">
+      <c r="C7" s="12" t="n">
         <v>20</v>
       </c>
-      <c r="D7" s="13" t="n">
+      <c r="D7" s="12" t="n">
         <v>-10</v>
       </c>
-      <c r="E7" s="13" t="n">
+      <c r="E7" s="12" t="n">
         <v>-10</v>
       </c>
-      <c r="F7" s="13" t="n">
+      <c r="F7" s="12" t="n">
         <v>-2</v>
       </c>
-      <c r="G7" s="13" t="n">
+      <c r="G7" s="12" t="n">
         <v>-2</v>
       </c>
-      <c r="H7" s="13" t="n">
+      <c r="H7" s="12" t="n">
         <v>-3</v>
       </c>
-      <c r="I7" s="13" t="n">
+      <c r="I7" s="12" t="n">
         <v>-3</v>
       </c>
-      <c r="J7" s="13" t="n">
+      <c r="J7" s="12" t="n">
         <v>20</v>
       </c>
-      <c r="K7" s="13" t="n">
+      <c r="K7" s="12" t="n">
         <v>-10</v>
       </c>
-      <c r="L7" s="13" t="n">
+      <c r="L7" s="12" t="n">
         <v>-10</v>
       </c>
-      <c r="M7" s="13" t="n">
+      <c r="M7" s="12" t="n">
         <v>-2</v>
       </c>
-      <c r="N7" s="13" t="n">
+      <c r="N7" s="12" t="n">
         <v>-2</v>
       </c>
-      <c r="O7" s="13" t="n">
+      <c r="O7" s="12" t="n">
         <v>-3</v>
       </c>
-      <c r="P7" s="13" t="n">
+      <c r="P7" s="12" t="n">
         <v>-3</v>
       </c>
-      <c r="Q7" s="13" t="n">
+      <c r="Q7" s="12" t="n">
         <v>20</v>
       </c>
-      <c r="R7" s="13" t="n">
+      <c r="R7" s="12" t="n">
         <v>-10</v>
       </c>
-      <c r="S7" s="13" t="n">
+      <c r="S7" s="12" t="n">
         <v>-10</v>
       </c>
-      <c r="T7" s="13" t="n">
+      <c r="T7" s="12" t="n">
         <v>-2</v>
       </c>
-      <c r="U7" s="13" t="n">
+      <c r="U7" s="12" t="n">
         <v>-2</v>
       </c>
-      <c r="V7" s="13" t="n">
+      <c r="V7" s="12" t="n">
         <v>-3</v>
       </c>
-      <c r="W7" s="13" t="n">
+      <c r="W7" s="12" t="n">
         <v>-3</v>
       </c>
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
       <c r="Y8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
       <c r="Y9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
       <c r="Y10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
       <c r="Y11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
       <c r="Y12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
       <c r="Y13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
       <c r="Y14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
       <c r="Y15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
       <c r="Y16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
       <c r="Y17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
       <c r="Y18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
       <c r="Y19" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="15"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
       <c r="Y20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="15"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
       <c r="Y21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="15"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
       <c r="Y22" s="10"/>
     </row>
+    <row r="23" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="0"/>
+      <c r="AA23" s="0"/>
+      <c r="AB23" s="0"/>
+      <c r="AC23" s="0"/>
+      <c r="AD23" s="0"/>
+      <c r="AE23" s="0"/>
+      <c r="AF23" s="0"/>
+      <c r="AG23" s="0"/>
+      <c r="AH23" s="0"/>
+      <c r="AI23" s="0"/>
+      <c r="AJ23" s="0"/>
+      <c r="AK23" s="0"/>
+      <c r="AL23" s="0"/>
+      <c r="AM23" s="0"/>
+      <c r="AN23" s="0"/>
+      <c r="AO23" s="0"/>
+      <c r="AP23" s="0"/>
+      <c r="AQ23" s="0"/>
+      <c r="AR23" s="0"/>
+      <c r="AS23" s="0"/>
+      <c r="AT23" s="0"/>
+      <c r="AU23" s="0"/>
+      <c r="AV23" s="0"/>
+      <c r="AW23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="0"/>
+      <c r="AA24" s="0"/>
+      <c r="AB24" s="0"/>
+      <c r="AC24" s="0"/>
+      <c r="AD24" s="0"/>
+      <c r="AE24" s="0"/>
+      <c r="AF24" s="0"/>
+      <c r="AG24" s="0"/>
+      <c r="AH24" s="0"/>
+      <c r="AI24" s="0"/>
+      <c r="AJ24" s="0"/>
+      <c r="AK24" s="0"/>
+      <c r="AL24" s="0"/>
+      <c r="AM24" s="0"/>
+      <c r="AN24" s="0"/>
+      <c r="AO24" s="0"/>
+      <c r="AP24" s="0"/>
+      <c r="AQ24" s="0"/>
+      <c r="AR24" s="0"/>
+      <c r="AS24" s="0"/>
+      <c r="AT24" s="0"/>
+      <c r="AU24" s="0"/>
+      <c r="AV24" s="0"/>
+      <c r="AW24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="0"/>
+      <c r="AA25" s="0"/>
+      <c r="AB25" s="0"/>
+      <c r="AC25" s="0"/>
+      <c r="AD25" s="0"/>
+      <c r="AE25" s="0"/>
+      <c r="AF25" s="0"/>
+      <c r="AG25" s="0"/>
+      <c r="AH25" s="0"/>
+      <c r="AI25" s="0"/>
+      <c r="AJ25" s="0"/>
+      <c r="AK25" s="0"/>
+      <c r="AL25" s="0"/>
+      <c r="AM25" s="0"/>
+      <c r="AN25" s="0"/>
+      <c r="AO25" s="0"/>
+      <c r="AP25" s="0"/>
+      <c r="AQ25" s="0"/>
+      <c r="AR25" s="0"/>
+      <c r="AS25" s="0"/>
+      <c r="AT25" s="0"/>
+      <c r="AU25" s="0"/>
+      <c r="AV25" s="0"/>
+      <c r="AW25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="0"/>
+      <c r="AA26" s="0"/>
+      <c r="AB26" s="0"/>
+      <c r="AC26" s="0"/>
+      <c r="AD26" s="0"/>
+      <c r="AE26" s="0"/>
+      <c r="AF26" s="0"/>
+      <c r="AG26" s="0"/>
+      <c r="AH26" s="0"/>
+      <c r="AI26" s="0"/>
+      <c r="AJ26" s="0"/>
+      <c r="AK26" s="0"/>
+      <c r="AL26" s="0"/>
+      <c r="AM26" s="0"/>
+      <c r="AN26" s="0"/>
+      <c r="AO26" s="0"/>
+      <c r="AP26" s="0"/>
+      <c r="AQ26" s="0"/>
+      <c r="AR26" s="0"/>
+      <c r="AS26" s="0"/>
+      <c r="AT26" s="0"/>
+      <c r="AU26" s="0"/>
+      <c r="AV26" s="0"/>
+      <c r="AW26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="0"/>
+      <c r="AA27" s="0"/>
+      <c r="AB27" s="0"/>
+      <c r="AC27" s="0"/>
+      <c r="AD27" s="0"/>
+      <c r="AE27" s="0"/>
+      <c r="AF27" s="0"/>
+      <c r="AG27" s="0"/>
+      <c r="AH27" s="0"/>
+      <c r="AI27" s="0"/>
+      <c r="AJ27" s="0"/>
+      <c r="AK27" s="0"/>
+      <c r="AL27" s="0"/>
+      <c r="AM27" s="0"/>
+      <c r="AN27" s="0"/>
+      <c r="AO27" s="0"/>
+      <c r="AP27" s="0"/>
+      <c r="AQ27" s="0"/>
+      <c r="AR27" s="0"/>
+      <c r="AS27" s="0"/>
+      <c r="AT27" s="0"/>
+      <c r="AU27" s="0"/>
+      <c r="AV27" s="0"/>
+      <c r="AW27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="0"/>
+      <c r="AA28" s="0"/>
+      <c r="AB28" s="0"/>
+      <c r="AC28" s="0"/>
+      <c r="AD28" s="0"/>
+      <c r="AE28" s="0"/>
+      <c r="AF28" s="0"/>
+      <c r="AG28" s="0"/>
+      <c r="AH28" s="0"/>
+      <c r="AI28" s="0"/>
+      <c r="AJ28" s="0"/>
+      <c r="AK28" s="0"/>
+      <c r="AL28" s="0"/>
+      <c r="AM28" s="0"/>
+      <c r="AN28" s="0"/>
+      <c r="AO28" s="0"/>
+      <c r="AP28" s="0"/>
+      <c r="AQ28" s="0"/>
+      <c r="AR28" s="0"/>
+      <c r="AS28" s="0"/>
+      <c r="AT28" s="0"/>
+      <c r="AU28" s="0"/>
+      <c r="AV28" s="0"/>
+      <c r="AW28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="0"/>
+      <c r="AA29" s="0"/>
+      <c r="AB29" s="0"/>
+      <c r="AC29" s="0"/>
+      <c r="AD29" s="0"/>
+      <c r="AE29" s="0"/>
+      <c r="AF29" s="0"/>
+      <c r="AG29" s="0"/>
+      <c r="AH29" s="0"/>
+      <c r="AI29" s="0"/>
+      <c r="AJ29" s="0"/>
+      <c r="AK29" s="0"/>
+      <c r="AL29" s="0"/>
+      <c r="AM29" s="0"/>
+      <c r="AN29" s="0"/>
+      <c r="AO29" s="0"/>
+      <c r="AP29" s="0"/>
+      <c r="AQ29" s="0"/>
+      <c r="AR29" s="0"/>
+      <c r="AS29" s="0"/>
+      <c r="AT29" s="0"/>
+      <c r="AU29" s="0"/>
+      <c r="AV29" s="0"/>
+      <c r="AW29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="0"/>
+      <c r="AA30" s="0"/>
+      <c r="AB30" s="0"/>
+      <c r="AC30" s="0"/>
+      <c r="AD30" s="0"/>
+      <c r="AE30" s="0"/>
+      <c r="AF30" s="0"/>
+      <c r="AG30" s="0"/>
+      <c r="AH30" s="0"/>
+      <c r="AI30" s="0"/>
+      <c r="AJ30" s="0"/>
+      <c r="AK30" s="0"/>
+      <c r="AL30" s="0"/>
+      <c r="AM30" s="0"/>
+      <c r="AN30" s="0"/>
+      <c r="AO30" s="0"/>
+      <c r="AP30" s="0"/>
+      <c r="AQ30" s="0"/>
+      <c r="AR30" s="0"/>
+      <c r="AS30" s="0"/>
+      <c r="AT30" s="0"/>
+      <c r="AU30" s="0"/>
+      <c r="AV30" s="0"/>
+      <c r="AW30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="0"/>
+      <c r="AA31" s="0"/>
+      <c r="AB31" s="0"/>
+      <c r="AC31" s="0"/>
+      <c r="AD31" s="0"/>
+      <c r="AE31" s="0"/>
+      <c r="AF31" s="0"/>
+      <c r="AG31" s="0"/>
+      <c r="AH31" s="0"/>
+      <c r="AI31" s="0"/>
+      <c r="AJ31" s="0"/>
+      <c r="AK31" s="0"/>
+      <c r="AL31" s="0"/>
+      <c r="AM31" s="0"/>
+      <c r="AN31" s="0"/>
+      <c r="AO31" s="0"/>
+      <c r="AP31" s="0"/>
+      <c r="AQ31" s="0"/>
+      <c r="AR31" s="0"/>
+      <c r="AS31" s="0"/>
+      <c r="AT31" s="0"/>
+      <c r="AU31" s="0"/>
+      <c r="AV31" s="0"/>
+      <c r="AW31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="0"/>
+      <c r="AA32" s="0"/>
+      <c r="AB32" s="0"/>
+      <c r="AC32" s="0"/>
+      <c r="AD32" s="0"/>
+      <c r="AE32" s="0"/>
+      <c r="AF32" s="0"/>
+      <c r="AG32" s="0"/>
+      <c r="AH32" s="0"/>
+      <c r="AI32" s="0"/>
+      <c r="AJ32" s="0"/>
+      <c r="AK32" s="0"/>
+      <c r="AL32" s="0"/>
+      <c r="AM32" s="0"/>
+      <c r="AN32" s="0"/>
+      <c r="AO32" s="0"/>
+      <c r="AP32" s="0"/>
+      <c r="AQ32" s="0"/>
+      <c r="AR32" s="0"/>
+      <c r="AS32" s="0"/>
+      <c r="AT32" s="0"/>
+      <c r="AU32" s="0"/>
+      <c r="AV32" s="0"/>
+      <c r="AW32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="0"/>
+      <c r="AA33" s="0"/>
+      <c r="AB33" s="0"/>
+      <c r="AC33" s="0"/>
+      <c r="AD33" s="0"/>
+      <c r="AE33" s="0"/>
+      <c r="AF33" s="0"/>
+      <c r="AG33" s="0"/>
+      <c r="AH33" s="0"/>
+      <c r="AI33" s="0"/>
+      <c r="AJ33" s="0"/>
+      <c r="AK33" s="0"/>
+      <c r="AL33" s="0"/>
+      <c r="AM33" s="0"/>
+      <c r="AN33" s="0"/>
+      <c r="AO33" s="0"/>
+      <c r="AP33" s="0"/>
+      <c r="AQ33" s="0"/>
+      <c r="AR33" s="0"/>
+      <c r="AS33" s="0"/>
+      <c r="AT33" s="0"/>
+      <c r="AU33" s="0"/>
+      <c r="AV33" s="0"/>
+      <c r="AW33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
+      <c r="X34" s="14"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="0"/>
+      <c r="AA34" s="0"/>
+      <c r="AB34" s="0"/>
+      <c r="AC34" s="0"/>
+      <c r="AD34" s="0"/>
+      <c r="AE34" s="0"/>
+      <c r="AF34" s="0"/>
+      <c r="AG34" s="0"/>
+      <c r="AH34" s="0"/>
+      <c r="AI34" s="0"/>
+      <c r="AJ34" s="0"/>
+      <c r="AK34" s="0"/>
+      <c r="AL34" s="0"/>
+      <c r="AM34" s="0"/>
+      <c r="AN34" s="0"/>
+      <c r="AO34" s="0"/>
+      <c r="AP34" s="0"/>
+      <c r="AQ34" s="0"/>
+      <c r="AR34" s="0"/>
+      <c r="AS34" s="0"/>
+      <c r="AT34" s="0"/>
+      <c r="AU34" s="0"/>
+      <c r="AV34" s="0"/>
+      <c r="AW34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="14"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="0"/>
+      <c r="AA35" s="0"/>
+      <c r="AB35" s="0"/>
+      <c r="AC35" s="0"/>
+      <c r="AD35" s="0"/>
+      <c r="AE35" s="0"/>
+      <c r="AF35" s="0"/>
+      <c r="AG35" s="0"/>
+      <c r="AH35" s="0"/>
+      <c r="AI35" s="0"/>
+      <c r="AJ35" s="0"/>
+      <c r="AK35" s="0"/>
+      <c r="AL35" s="0"/>
+      <c r="AM35" s="0"/>
+      <c r="AN35" s="0"/>
+      <c r="AO35" s="0"/>
+      <c r="AP35" s="0"/>
+      <c r="AQ35" s="0"/>
+      <c r="AR35" s="0"/>
+      <c r="AS35" s="0"/>
+      <c r="AT35" s="0"/>
+      <c r="AU35" s="0"/>
+      <c r="AV35" s="0"/>
+      <c r="AW35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="14"/>
+      <c r="X36" s="14"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="0"/>
+      <c r="AA36" s="0"/>
+      <c r="AB36" s="0"/>
+      <c r="AC36" s="0"/>
+      <c r="AD36" s="0"/>
+      <c r="AE36" s="0"/>
+      <c r="AF36" s="0"/>
+      <c r="AG36" s="0"/>
+      <c r="AH36" s="0"/>
+      <c r="AI36" s="0"/>
+      <c r="AJ36" s="0"/>
+      <c r="AK36" s="0"/>
+      <c r="AL36" s="0"/>
+      <c r="AM36" s="0"/>
+      <c r="AN36" s="0"/>
+      <c r="AO36" s="0"/>
+      <c r="AP36" s="0"/>
+      <c r="AQ36" s="0"/>
+      <c r="AR36" s="0"/>
+      <c r="AS36" s="0"/>
+      <c r="AT36" s="0"/>
+      <c r="AU36" s="0"/>
+      <c r="AV36" s="0"/>
+      <c r="AW36" s="0"/>
+    </row>
+    <row r="37" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="14"/>
+      <c r="X37" s="14"/>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="0"/>
+      <c r="AA37" s="0"/>
+      <c r="AB37" s="0"/>
+      <c r="AC37" s="0"/>
+      <c r="AD37" s="0"/>
+      <c r="AE37" s="0"/>
+      <c r="AF37" s="0"/>
+      <c r="AG37" s="0"/>
+      <c r="AH37" s="0"/>
+      <c r="AI37" s="0"/>
+      <c r="AJ37" s="0"/>
+      <c r="AK37" s="0"/>
+      <c r="AL37" s="0"/>
+      <c r="AM37" s="0"/>
+      <c r="AN37" s="0"/>
+      <c r="AO37" s="0"/>
+      <c r="AP37" s="0"/>
+      <c r="AQ37" s="0"/>
+      <c r="AR37" s="0"/>
+      <c r="AS37" s="0"/>
+      <c r="AT37" s="0"/>
+      <c r="AU37" s="0"/>
+      <c r="AV37" s="0"/>
+      <c r="AW37" s="0"/>
+    </row>
+    <row r="38" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="14"/>
+      <c r="W38" s="14"/>
+      <c r="X38" s="14"/>
+      <c r="Y38" s="10"/>
+    </row>
+    <row r="39" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="14"/>
+      <c r="W39" s="14"/>
+      <c r="X39" s="14"/>
+      <c r="Y39" s="10"/>
+    </row>
+    <row r="40" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="14"/>
+      <c r="X40" s="14"/>
+      <c r="Y40" s="10"/>
+    </row>
+    <row r="41" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="14"/>
+      <c r="V41" s="14"/>
+      <c r="W41" s="14"/>
+      <c r="X41" s="14"/>
+      <c r="Y41" s="10"/>
+    </row>
+    <row r="42" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="13"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="14"/>
+      <c r="W42" s="14"/>
+      <c r="X42" s="14"/>
+      <c r="Y42" s="10"/>
+    </row>
+    <row r="43" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="13"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="14"/>
+      <c r="W43" s="14"/>
+      <c r="X43" s="14"/>
+      <c r="Y43" s="10"/>
+    </row>
+    <row r="44" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="13"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="14"/>
+      <c r="V44" s="14"/>
+      <c r="W44" s="14"/>
+      <c r="X44" s="14"/>
+      <c r="Y44" s="10"/>
+    </row>
+    <row r="45" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="13"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="14"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="14"/>
+      <c r="V45" s="14"/>
+      <c r="W45" s="14"/>
+      <c r="X45" s="14"/>
+      <c r="Y45" s="10"/>
+    </row>
+    <row r="46" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="13"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="14"/>
+      <c r="V46" s="14"/>
+      <c r="W46" s="14"/>
+      <c r="X46" s="14"/>
+      <c r="Y46" s="10"/>
+    </row>
+    <row r="47" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="13"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="14"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="14"/>
+      <c r="V47" s="14"/>
+      <c r="W47" s="14"/>
+      <c r="X47" s="14"/>
+      <c r="Y47" s="10"/>
+    </row>
+    <row r="48" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="13"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="14"/>
+      <c r="U48" s="14"/>
+      <c r="V48" s="14"/>
+      <c r="W48" s="14"/>
+      <c r="X48" s="14"/>
+      <c r="Y48" s="10"/>
+    </row>
+    <row r="49" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="13"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="14"/>
+      <c r="T49" s="14"/>
+      <c r="U49" s="14"/>
+      <c r="V49" s="14"/>
+      <c r="W49" s="14"/>
+      <c r="X49" s="14"/>
+      <c r="Y49" s="10"/>
+    </row>
+    <row r="50" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="13"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="14"/>
+      <c r="S50" s="14"/>
+      <c r="T50" s="14"/>
+      <c r="U50" s="14"/>
+      <c r="V50" s="14"/>
+      <c r="W50" s="14"/>
+      <c r="X50" s="14"/>
+      <c r="Y50" s="10"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B2:I2"/>
@@ -1039,7 +2145,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.747916666666667" bottom="0.747916666666667" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="80" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="76" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
